--- a/ValidacionOpenComet.xlsx
+++ b/ValidacionOpenComet.xlsx
@@ -2,18 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerardo\Dropbox\INGENIERIA\ENSAYO COMETA\matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9855"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9855"/>
   </bookViews>
   <sheets>
-    <sheet name="Conf Optimas" sheetId="2" r:id="rId1"/>
-    <sheet name="Conf Default" sheetId="3" r:id="rId2"/>
+    <sheet name="Conf Default" sheetId="3" r:id="rId1"/>
+    <sheet name="Conf Optimas" sheetId="2" r:id="rId2"/>
     <sheet name="Conf1" sheetId="4" r:id="rId3"/>
     <sheet name="Conf2" sheetId="5" r:id="rId4"/>
     <sheet name="Conf3" sheetId="6" r:id="rId5"/>
@@ -165,13 +165,13 @@
     <t>CONFIGURACION MATLAB</t>
   </si>
   <si>
-    <t>localthresholding</t>
+    <t>local</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -618,746 +618,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="1.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.75" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.75" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.75" style="16" customWidth="1"/>
-    <col min="8" max="8" width="2.5" customWidth="1"/>
-    <col min="9" max="9" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="40.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="6"/>
-      <c r="O1" s="10"/>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="O2" s="10"/>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="10"/>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3">
-        <v>9</v>
-      </c>
-      <c r="L4" s="3">
-        <v>19</v>
-      </c>
-      <c r="M4" s="3">
-        <v>10</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="2">
-        <v>400</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="4">
-        <v>3000</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="O6" s="12"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K7" s="4">
-        <v>84</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1</v>
-      </c>
-      <c r="M7" s="2">
-        <v>12</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="4">
-        <v>11</v>
-      </c>
-      <c r="L8" s="14">
-        <v>1</v>
-      </c>
-      <c r="M8" s="14">
-        <v>10</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="O9" s="8"/>
-    </row>
-    <row r="10" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="4">
-        <v>20</v>
-      </c>
-      <c r="L10" s="2">
-        <v>20</v>
-      </c>
-      <c r="M10" s="2">
-        <v>20</v>
-      </c>
-      <c r="O10" s="8"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="15">
-        <f>((100*K4)/(K4+K8))</f>
-        <v>45</v>
-      </c>
-      <c r="L11" s="15">
-        <f t="shared" ref="L11:M11" si="0">((100*L4)/(L4+L8))</f>
-        <v>95</v>
-      </c>
-      <c r="M11" s="15">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="O11" s="8"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="15">
-        <f>((100*K5)/(K5+K7))</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="15">
-        <f t="shared" ref="L12:M12" si="1">((100*L5)/(L5+L7))</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="8"/>
-    </row>
-    <row r="13" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="19"/>
-      <c r="O13" s="8"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="O14" s="8"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O15" s="8"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="O16" s="8"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="O17" s="8"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="O18" s="8"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="O19" s="8"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="O20" s="8"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="4">
-        <v>3000</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="O21" s="8"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="O22" s="8"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="O23" s="8"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="O24" s="8"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="O25" s="8"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="O26" s="8"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="O27" s="8"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="O28" s="8"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="O29" s="8"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O30" s="8"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O31" s="8"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O32" s="8"/>
-    </row>
-    <row r="33" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O33" s="8"/>
-    </row>
-    <row r="34" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O34" s="8"/>
-    </row>
-    <row r="35" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O35" s="8"/>
-    </row>
-    <row r="36" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O36" s="8"/>
-    </row>
-    <row r="37" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O37" s="8"/>
-    </row>
-    <row r="38" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O38" s="8"/>
-    </row>
-    <row r="39" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O39" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A13:C13"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="1.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1648,25 +925,747 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O39"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.5703125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.85546875" customWidth="1"/>
+    <col min="15" max="15" width="40.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="6"/>
+      <c r="O1" s="10"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="O2" s="10"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="10"/>
+    </row>
+    <row r="4" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>9</v>
+      </c>
+      <c r="L4" s="3">
+        <v>19</v>
+      </c>
+      <c r="M4" s="3">
+        <v>19</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2">
+        <v>400</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3000</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4">
+        <v>84</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="4">
+        <v>11</v>
+      </c>
+      <c r="L8" s="14">
+        <v>1</v>
+      </c>
+      <c r="M8" s="14">
+        <v>1</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="4">
+        <v>20</v>
+      </c>
+      <c r="L10" s="2">
+        <v>20</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="15">
+        <f>((100*K4)/(K4+K8))</f>
+        <v>45</v>
+      </c>
+      <c r="L11" s="15">
+        <f t="shared" ref="L11:M11" si="0">((100*L4)/(L4+L8))</f>
+        <v>95</v>
+      </c>
+      <c r="M11" s="15">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="15">
+        <f>((100*K5)/(K5+K7))</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="15">
+        <f t="shared" ref="L12:M12" si="1">((100*L5)/(L5+L7))</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="15">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="19"/>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="O14" s="8"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O15" s="8"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="O16" s="8"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="O17" s="8"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="O18" s="8"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="O19" s="8"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="O20" s="8"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="4">
+        <v>3000</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="O21" s="8"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="O22" s="8"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="O23" s="8"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="O24" s="8"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="O25" s="8"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="O26" s="8"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="O27" s="8"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="O28" s="8"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="O29" s="8"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O30" s="8"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O31" s="8"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O32" s="8"/>
+    </row>
+    <row r="33" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O33" s="8"/>
+    </row>
+    <row r="34" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O34" s="8"/>
+    </row>
+    <row r="35" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O35" s="8"/>
+    </row>
+    <row r="36" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O36" s="8"/>
+    </row>
+    <row r="37" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O37" s="8"/>
+    </row>
+    <row r="38" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O38" s="8"/>
+    </row>
+    <row r="39" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O39" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E10:G10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G12"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="1.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1945,20 +1944,20 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="1.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2245,20 +2244,20 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="1.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2545,20 +2544,20 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="1.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2845,20 +2844,20 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="1.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
